--- a/Review/3_plots/data/Results_final.xlsx
+++ b/Review/3_plots/data/Results_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\OneDrive - GESIS – Leibniz-Institut für Sozialwissenschaften e.V\Dokumente\Coding Projekte (Git)\Review_Validity\Review\3_plots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559784FA-5201-447C-A444-C168EC846B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF1BCA9-A27D-4EBE-9D91-4FD85A81E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="2925" windowWidth="14400" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -5200,8 +5200,8 @@
   <dimension ref="A1:AS199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR5" sqref="AR5:AR185"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="AS4" s="3"/>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>44809.61661636574</v>
       </c>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="AS5"/>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>44894.702315335649</v>
       </c>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="AS6"/>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>44809.646386770837</v>
       </c>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="AS7"/>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>44893.471219699073</v>
       </c>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="AS8" s="3"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>44889.792338472223</v>
       </c>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="AS9" s="3"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>44895.580109027782</v>
       </c>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="AS10"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>44810.489268726851</v>
       </c>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="AS11"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>44809.666852118055</v>
       </c>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="AS12"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>44810.65508744213</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="AS13"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>44810.66047023148</v>
       </c>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="AS14"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>44811.485760266209</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="AS15"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>44810.737058472223</v>
       </c>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="AS16"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>44817.500956076387</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AS17"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>44879.475091863424</v>
       </c>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AS18"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>44882.639685127317</v>
       </c>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="AS19" s="3"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>44895.628121666668</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>44894.436467037041</v>
       </c>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AS21"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>44894.471521319443</v>
       </c>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="AS22"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>44819.440220254633</v>
       </c>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AS23"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>44879.436075393518</v>
       </c>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="AS24"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>44894.424474525462</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>44819.444338900459</v>
       </c>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="AS44" s="44"/>
     </row>
-    <row r="45" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>44894.68266071759</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="AS45" s="44"/>
     </row>
-    <row r="46" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>44873.476341388887</v>
       </c>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="AS47" s="45"/>
     </row>
-    <row r="48" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>44873.500517870372</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>44873.504880219909</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>44873.509644837963</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>44876.438731539354</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>44875.864850844911</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>44879.449258449073</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>44875.915039108797</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>44883.518197349535</v>
       </c>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="AS55"/>
     </row>
-    <row r="56" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>44875.916624756945</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>44875.961216631942</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>44876.414951354163</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>44876.421408333335</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>44875.873558819439</v>
       </c>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>44879.42159917824</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>44879.42352945602</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>44889.577618530093</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>44873.484311134263</v>
       </c>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>44879.440003055555</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>44811.389011261577</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>44879.466680081023</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>44879.467524814812</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>44876.454161145833</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>44883.566361377314</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>44879.572188958336</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>44879.575715555555</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>44894.442291284722</v>
       </c>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="AS74" s="45"/>
     </row>
-    <row r="75" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
         <v>44879.587629814814</v>
       </c>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="AS76" s="45"/>
     </row>
-    <row r="77" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
         <v>44879.52020194444</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>44882.621864930552</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>44883.487381747684</v>
       </c>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="AS79"/>
     </row>
-    <row r="80" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>44882.706741724542</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>44882.649011504633</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>44894.639868680555</v>
       </c>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="AS83"/>
     </row>
-    <row r="84" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>44882.681590590277</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>44882.691817546292</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>44882.692981863423</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>44895.713284074074</v>
       </c>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="AS88"/>
     </row>
-    <row r="89" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>44872.512145949077</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>44882.685816006946</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36">
         <v>44883.463751180556</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>44889.78002539352</v>
       </c>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="AS92"/>
     </row>
-    <row r="93" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>44811.567180405094</v>
       </c>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="AS93"/>
     </row>
-    <row r="94" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <v>44883.503285844912</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36">
         <v>44883.50445025463</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36">
         <v>44883.513451620369</v>
       </c>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="AS97"/>
     </row>
-    <row r="98" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>44883.555777048612</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>44816.637218425923</v>
       </c>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="AS99"/>
     </row>
-    <row r="100" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>44887.644764363431</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="AS100"/>
     </row>
-    <row r="101" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>44888.574858298613</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="AS101"/>
     </row>
-    <row r="102" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36">
         <v>44819.419327349533</v>
       </c>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="AS102"/>
     </row>
-    <row r="103" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36">
         <v>44872.484477881946</v>
       </c>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="AS105"/>
     </row>
-    <row r="106" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
         <v>44882.652757534721</v>
       </c>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="AS106"/>
     </row>
-    <row r="107" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>44882.716180509262</v>
       </c>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="AS107"/>
     </row>
-    <row r="108" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>44890.700057222217</v>
       </c>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="AS108"/>
     </row>
-    <row r="109" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <v>44883.473071238426</v>
       </c>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="AS109"/>
     </row>
-    <row r="110" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>44889.784474421293</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <v>44893.433100023147</v>
       </c>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="AS111"/>
     </row>
-    <row r="112" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>44890.692700057873</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <v>44893.451805914352</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <v>44893.456901608792</v>
       </c>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="AS114"/>
     </row>
-    <row r="115" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>44894.654281030089</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <v>44893.474443240746</v>
       </c>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="AS116"/>
     </row>
-    <row r="117" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>44893.475431932871</v>
       </c>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="AS117"/>
     </row>
-    <row r="118" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>44893.482339803246</v>
       </c>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="AS118"/>
     </row>
-    <row r="119" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>44894.414038043979</v>
       </c>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="AS119"/>
     </row>
-    <row r="120" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>44894.67998119213</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>44895.569044074073</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>44895.6085690162</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>44894.450856400465</v>
       </c>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="AS124"/>
     </row>
-    <row r="125" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <v>44894.457995868055</v>
       </c>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="AS125"/>
     </row>
-    <row r="126" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <v>44895.633516273148</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>44895.653415416666</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <v>44895.700448715274</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <v>44894.490996631939</v>
       </c>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="AS129"/>
     </row>
-    <row r="130" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44894.494048981476</v>
       </c>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="AS130"/>
     </row>
-    <row r="131" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44895.727651562498</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <v>44894.631077627317</v>
       </c>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="AS132"/>
     </row>
-    <row r="133" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <v>44894.63263472222</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="AS133"/>
     </row>
-    <row r="134" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <v>44895.737652719909</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <v>44894.648001759255</v>
       </c>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="AS135"/>
     </row>
-    <row r="136" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <v>44894.649945509256</v>
       </c>
@@ -14978,7 +14978,7 @@
       </c>
       <c r="AS136"/>
     </row>
-    <row r="137" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36">
         <v>44875.886126342593</v>
       </c>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AS137" s="3"/>
     </row>
-    <row r="138" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36">
         <v>44810.627858414351</v>
       </c>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="AS140"/>
     </row>
-    <row r="141" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36">
         <v>44873.527005231481</v>
       </c>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="AS141" s="3"/>
     </row>
-    <row r="142" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <v>44895.464246655094</v>
       </c>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="AS142"/>
     </row>
-    <row r="143" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>44895.587399282405</v>
       </c>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="AS143"/>
     </row>
-    <row r="144" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="39">
         <v>44893.427161168976</v>
       </c>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="AS144"/>
     </row>
-    <row r="145" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <v>44895.56598392361</v>
       </c>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="AS145"/>
     </row>
-    <row r="146" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36">
         <v>44810.448212800926</v>
       </c>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="AS146"/>
     </row>
-    <row r="147" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="39">
         <v>44895.569950393518</v>
       </c>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="AS147"/>
     </row>
-    <row r="148" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36">
         <v>44810.470930243057</v>
       </c>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="AS148"/>
     </row>
-    <row r="149" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36">
         <v>44810.711688807874</v>
       </c>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="AS149"/>
     </row>
-    <row r="150" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <v>44895.581071168985</v>
       </c>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="AS150"/>
     </row>
-    <row r="151" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36">
         <v>44818.642666655098</v>
       </c>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="AS151"/>
     </row>
-    <row r="152" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36">
         <v>44882.63297496528</v>
       </c>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="AS152" s="3"/>
     </row>
-    <row r="153" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="39">
         <v>44895.609655902779</v>
       </c>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="AS153"/>
     </row>
-    <row r="154" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <v>44895.610949606482</v>
       </c>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="AS154"/>
     </row>
-    <row r="155" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <v>44895.611667557867</v>
       </c>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="AS156" s="3"/>
     </row>
-    <row r="157" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36">
         <v>44882.672531006945</v>
       </c>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="AS157" s="3"/>
     </row>
-    <row r="158" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <v>44895.625670312496</v>
       </c>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="AS160"/>
     </row>
-    <row r="161" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>44894.467960023147</v>
       </c>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="AS161"/>
     </row>
-    <row r="162" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <v>44895.576332928242</v>
       </c>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="AS162"/>
     </row>
-    <row r="163" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <v>44895.619759780093</v>
       </c>
@@ -16840,7 +16840,7 @@
       </c>
       <c r="AS163"/>
     </row>
-    <row r="164" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <v>44895.647230844908</v>
       </c>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="AS164"/>
     </row>
-    <row r="165" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <v>44895.648473935187</v>
       </c>
@@ -16912,7 +16912,7 @@
       </c>
       <c r="AS165"/>
     </row>
-    <row r="166" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <v>44895.623526261574</v>
       </c>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="AS166"/>
     </row>
-    <row r="167" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <v>44895.658752627314</v>
       </c>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="AS167"/>
     </row>
-    <row r="168" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <v>44895.673521724537</v>
       </c>
@@ -17053,7 +17053,7 @@
       </c>
       <c r="AS168"/>
     </row>
-    <row r="169" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <v>44895.67480403935</v>
       </c>
@@ -17090,7 +17090,7 @@
       </c>
       <c r="AS169"/>
     </row>
-    <row r="170" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <v>44895.638438020833</v>
       </c>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="AS170"/>
     </row>
-    <row r="171" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>44895.679413900463</v>
       </c>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="AS171"/>
     </row>
-    <row r="172" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="39">
         <v>44895.679834814815</v>
       </c>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="AS172"/>
     </row>
-    <row r="173" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <v>44895.680836655098</v>
       </c>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="AS173"/>
     </row>
-    <row r="174" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <v>44895.643770011578</v>
       </c>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="AS174"/>
     </row>
-    <row r="175" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="39">
         <v>44895.678835925923</v>
       </c>
@@ -17433,7 +17433,7 @@
       </c>
       <c r="AS175"/>
     </row>
-    <row r="176" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <v>44895.68973967593</v>
       </c>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="AS177"/>
     </row>
-    <row r="178" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="39">
         <v>44894.629374016207</v>
       </c>
@@ -17697,7 +17697,7 @@
       </c>
       <c r="AS178"/>
     </row>
-    <row r="179" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <v>44895.564594722222</v>
       </c>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="AS179"/>
     </row>
-    <row r="180" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <v>44895.720944189816</v>
       </c>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="AS180"/>
     </row>
-    <row r="181" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="39">
         <v>44888.586773217598</v>
       </c>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="AS181"/>
     </row>
-    <row r="182" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <v>44895.734261851852</v>
       </c>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="AS182"/>
     </row>
-    <row r="183" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36">
         <v>44879.584915231477</v>
       </c>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="AS183"/>
     </row>
-    <row r="184" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <v>44895.738103321761</v>
       </c>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="AS184"/>
     </row>
-    <row r="185" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <v>44895.738689560181</v>
       </c>
@@ -18472,6 +18472,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AS199" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Party Politics: Parliamentary Records"/>
+        <filter val="Party Politics: Party Manifestos, Party Politics: Parliamentary Records"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="43">
       <filters>
         <filter val="lukas.birkenmaier@outlook.de"/>

--- a/Review/3_plots/data/Results_final.xlsx
+++ b/Review/3_plots/data/Results_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\OneDrive - GESIS – Leibniz-Institut für Sozialwissenschaften e.V\Dokumente\Coding Projekte (Git)\Review_Validity\Review\3_plots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF1BCA9-A27D-4EBE-9D91-4FD85A81E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74938AFE-A261-46FB-88F0-817B6E784F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4745,13 +4745,13 @@
     <t>Morality/Norms</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference </t>
-  </si>
-  <si>
-    <t>Text Attributes</t>
-  </si>
-  <si>
     <t>Unsupervised: Topic Modeling, Unsupervised: Topic Segmentation</t>
+  </si>
+  <si>
+    <t>Reference to social groups</t>
+  </si>
+  <si>
+    <t>Linguistic Attributes</t>
   </si>
 </sst>
 </file>
@@ -5201,37 +5201,37 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="18.81640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="34.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="51.453125" style="13" customWidth="1"/>
-    <col min="9" max="15" width="18.81640625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" style="7" customWidth="1"/>
-    <col min="17" max="19" width="18.81640625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="18.81640625" style="27" customWidth="1"/>
-    <col min="21" max="23" width="18.81640625" style="22" customWidth="1"/>
-    <col min="24" max="24" width="18.81640625" style="27" customWidth="1"/>
-    <col min="25" max="27" width="18.81640625" style="19" customWidth="1"/>
-    <col min="28" max="28" width="18.81640625" style="27" customWidth="1"/>
-    <col min="29" max="31" width="18.81640625" style="22" customWidth="1"/>
-    <col min="32" max="32" width="18.81640625" style="27" customWidth="1"/>
-    <col min="33" max="35" width="18.81640625" style="19" customWidth="1"/>
-    <col min="36" max="36" width="18.81640625" style="27" customWidth="1"/>
-    <col min="37" max="39" width="18.81640625" style="22" customWidth="1"/>
-    <col min="40" max="40" width="18.81640625" style="27" customWidth="1"/>
-    <col min="41" max="43" width="18.81640625" style="31" customWidth="1"/>
-    <col min="44" max="44" width="18.81640625" customWidth="1"/>
-    <col min="45" max="45" width="18.81640625" style="44" customWidth="1"/>
+    <col min="1" max="3" width="18.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" style="13" customWidth="1"/>
+    <col min="9" max="15" width="18.85546875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="7" customWidth="1"/>
+    <col min="17" max="19" width="18.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" style="27" customWidth="1"/>
+    <col min="21" max="23" width="18.85546875" style="22" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" style="27" customWidth="1"/>
+    <col min="25" max="27" width="18.85546875" style="19" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" style="27" customWidth="1"/>
+    <col min="29" max="31" width="18.85546875" style="22" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="27" customWidth="1"/>
+    <col min="33" max="35" width="18.85546875" style="19" customWidth="1"/>
+    <col min="36" max="36" width="18.85546875" style="27" customWidth="1"/>
+    <col min="37" max="39" width="18.85546875" style="22" customWidth="1"/>
+    <col min="40" max="40" width="18.85546875" style="27" customWidth="1"/>
+    <col min="41" max="43" width="18.85546875" style="31" customWidth="1"/>
+    <col min="44" max="44" width="18.85546875" customWidth="1"/>
+    <col min="45" max="45" width="18.85546875" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36">
         <v>44805.762699317129</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="AQ2" s="29"/>
       <c r="AS2"/>
     </row>
-    <row r="3" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36">
         <v>44805.808277569449</v>
       </c>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <v>44805.827170081015</v>
       </c>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="AS4" s="3"/>
     </row>
-    <row r="5" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>44809.61661636574</v>
       </c>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="AS5"/>
     </row>
-    <row r="6" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
         <v>44894.702315335649</v>
       </c>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="AS6"/>
     </row>
-    <row r="7" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36">
         <v>44809.646386770837</v>
       </c>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="AS7"/>
     </row>
-    <row r="8" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39">
         <v>44893.471219699073</v>
       </c>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="AS8" s="3"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39">
         <v>44889.792338472223</v>
       </c>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="AS9" s="3"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
         <v>44895.580109027782</v>
       </c>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="AS10"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
         <v>44810.489268726851</v>
       </c>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="AS11"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
         <v>44809.666852118055</v>
       </c>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="AS12"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <v>44810.65508744213</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="AS13"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <v>44810.66047023148</v>
       </c>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="AS14"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36">
         <v>44811.485760266209</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="AS15"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>44810.737058472223</v>
       </c>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="AS16"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>44817.500956076387</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AS17"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>44879.475091863424</v>
       </c>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AS18"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>44882.639685127317</v>
       </c>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="AS19" s="3"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>44895.628121666668</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39">
         <v>44894.436467037041</v>
       </c>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AS21"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
         <v>44894.471521319443</v>
       </c>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="AS22"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36">
         <v>44819.440220254633</v>
       </c>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AS23"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>44879.436075393518</v>
       </c>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="AS24"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>44894.424474525462</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>44894.431311076391</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36">
         <v>44819.444338900459</v>
       </c>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="AS27"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36">
         <v>44824.914519363425</v>
       </c>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="AS28"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36">
         <v>44824.927111759258</v>
       </c>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="AS29"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36">
         <v>44824.936286099539</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="AS30"/>
     </row>
-    <row r="31" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36">
         <v>44838.284367569446</v>
       </c>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="AS31"/>
     </row>
-    <row r="32" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36">
         <v>44838.287174814817</v>
       </c>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="AS32"/>
     </row>
-    <row r="33" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36">
         <v>44838.289070868057</v>
       </c>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="AS33"/>
     </row>
-    <row r="34" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36">
         <v>44838.293343773148</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="AS34"/>
     </row>
-    <row r="35" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36">
         <v>44838.296179166668</v>
       </c>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="AS35"/>
     </row>
-    <row r="36" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36">
         <v>44838.312631099536</v>
       </c>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="AS36"/>
     </row>
-    <row r="37" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36">
         <v>44838.331505243055</v>
       </c>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="AS37"/>
     </row>
-    <row r="38" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36">
         <v>44838.336661261579</v>
       </c>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="AS38"/>
     </row>
-    <row r="39" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36">
         <v>44838.345808993057</v>
       </c>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="AS39"/>
     </row>
-    <row r="40" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36">
         <v>44838.419037974541</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="AS40"/>
     </row>
-    <row r="41" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36">
         <v>44838.432596307874</v>
       </c>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="AS41"/>
     </row>
-    <row r="42" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36">
         <v>44838.458597673613</v>
       </c>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="AS42" s="3"/>
     </row>
-    <row r="43" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36">
         <v>44838.49724636574</v>
       </c>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="AS43"/>
     </row>
-    <row r="44" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39">
         <v>44894.671599837966</v>
       </c>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="AS44" s="44"/>
     </row>
-    <row r="45" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39">
         <v>44894.68266071759</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="AS45" s="44"/>
     </row>
-    <row r="46" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36">
         <v>44873.476341388887</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39">
         <v>44895.733453032408</v>
       </c>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="AS47" s="45"/>
     </row>
-    <row r="48" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36">
         <v>44873.500517870372</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36">
         <v>44873.504880219909</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36">
         <v>44873.509644837963</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36">
         <v>44876.438731539354</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36">
         <v>44875.864850844911</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36">
         <v>44879.449258449073</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36">
         <v>44875.915039108797</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36">
         <v>44883.518197349535</v>
       </c>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="AS55"/>
     </row>
-    <row r="56" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36">
         <v>44875.916624756945</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36">
         <v>44875.961216631942</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36">
         <v>44876.414951354163</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36">
         <v>44876.421408333335</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36">
         <v>44875.873558819439</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39">
         <v>44893.432378263889</v>
       </c>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36">
         <v>44879.42159917824</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36">
         <v>44879.42352945602</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39">
         <v>44889.577618530093</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36">
         <v>44873.484311134263</v>
       </c>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36">
         <v>44879.440003055555</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36">
         <v>44811.389011261577</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36">
         <v>44879.466680081023</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36">
         <v>44879.467524814812</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36">
         <v>44876.454161145833</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36">
         <v>44883.566361377314</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36">
         <v>44879.572188958336</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36">
         <v>44879.575715555555</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39">
         <v>44894.442291284722</v>
       </c>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="AS74" s="45"/>
     </row>
-    <row r="75" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>44879.587629814814</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39">
         <v>44895.696669687502</v>
       </c>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="AS76" s="45"/>
     </row>
-    <row r="77" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36">
         <v>44879.52020194444</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36">
         <v>44882.621864930552</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36">
         <v>44883.487381747684</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>571</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>401</v>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="AS79"/>
     </row>
-    <row r="80" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36">
         <v>44882.706741724542</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>540</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>401</v>
@@ -11439,7 +11439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36">
         <v>44882.649011504633</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39">
         <v>44894.489546111115</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>737</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K82" s="13" t="s">
         <v>738</v>
@@ -11589,7 +11589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39">
         <v>44894.639868680555</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>756</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>53</v>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="AS83"/>
     </row>
-    <row r="84" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36">
         <v>44882.681590590277</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39">
         <v>44895.646453055553</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>855</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>401</v>
@@ -11816,7 +11816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36">
         <v>44882.691817546292</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36">
         <v>44882.692981863423</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39">
         <v>44895.713284074074</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>892</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>39</v>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="AS88"/>
     </row>
-    <row r="89" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36">
         <v>44872.512145949077</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36">
         <v>44882.685816006946</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36">
         <v>44883.463751180556</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39">
         <v>44889.78002539352</v>
       </c>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="AS92"/>
     </row>
-    <row r="93" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36">
         <v>44811.567180405094</v>
       </c>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="AS93"/>
     </row>
-    <row r="94" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36">
         <v>44883.503285844912</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36">
         <v>44883.50445025463</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36">
         <v>44883.513451620369</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="3" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36">
         <v>44811.591906678237</v>
       </c>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="AS97"/>
     </row>
-    <row r="98" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36">
         <v>44883.555777048612</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="3" customFormat="1" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" s="3" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36">
         <v>44816.637218425923</v>
       </c>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="AS99"/>
     </row>
-    <row r="100" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39">
         <v>44887.644764363431</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="AS100"/>
     </row>
-    <row r="101" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39">
         <v>44888.574858298613</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="AS101"/>
     </row>
-    <row r="102" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36">
         <v>44819.419327349533</v>
       </c>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="AS102"/>
     </row>
-    <row r="103" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36">
         <v>44872.484477881946</v>
       </c>
@@ -13114,7 +13114,7 @@
       </c>
       <c r="AS103"/>
     </row>
-    <row r="104" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36">
         <v>44879.429561296296</v>
       </c>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="AS104"/>
     </row>
-    <row r="105" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36">
         <v>44879.596528333335</v>
       </c>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="AS105"/>
     </row>
-    <row r="106" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36">
         <v>44882.652757534721</v>
       </c>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="AS106"/>
     </row>
-    <row r="107" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36">
         <v>44882.716180509262</v>
       </c>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="AS107"/>
     </row>
-    <row r="108" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39">
         <v>44890.700057222217</v>
       </c>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="AS108"/>
     </row>
-    <row r="109" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36">
         <v>44883.473071238426</v>
       </c>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="AS109"/>
     </row>
-    <row r="110" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39">
         <v>44889.784474421293</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39">
         <v>44893.433100023147</v>
       </c>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="AS111"/>
     </row>
-    <row r="112" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39">
         <v>44890.692700057873</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39">
         <v>44893.451805914352</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39">
         <v>44893.456901608792</v>
       </c>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="AS114"/>
     </row>
-    <row r="115" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39">
         <v>44894.654281030089</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39">
         <v>44893.474443240746</v>
       </c>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="AS116"/>
     </row>
-    <row r="117" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39">
         <v>44893.475431932871</v>
       </c>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="AS117"/>
     </row>
-    <row r="118" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39">
         <v>44893.482339803246</v>
       </c>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="AS118"/>
     </row>
-    <row r="119" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39">
         <v>44894.414038043979</v>
       </c>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="AS119"/>
     </row>
-    <row r="120" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39">
         <v>44894.67998119213</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39">
         <v>44895.473229189811</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39">
         <v>44895.569044074073</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39">
         <v>44895.6085690162</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39">
         <v>44894.450856400465</v>
       </c>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="AS124"/>
     </row>
-    <row r="125" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39">
         <v>44894.457995868055</v>
       </c>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="AS125"/>
     </row>
-    <row r="126" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39">
         <v>44895.633516273148</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39">
         <v>44895.653415416666</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39">
         <v>44895.700448715274</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39">
         <v>44894.490996631939</v>
       </c>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="AS129"/>
     </row>
-    <row r="130" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39">
         <v>44894.494048981476</v>
       </c>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="AS130"/>
     </row>
-    <row r="131" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39">
         <v>44895.727651562498</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39">
         <v>44894.631077627317</v>
       </c>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="AS132"/>
     </row>
-    <row r="133" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39">
         <v>44894.63263472222</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="AS133"/>
     </row>
-    <row r="134" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39">
         <v>44895.737652719909</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39">
         <v>44894.648001759255</v>
       </c>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="AS135"/>
     </row>
-    <row r="136" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39">
         <v>44894.649945509256</v>
       </c>
@@ -14978,7 +14978,7 @@
       </c>
       <c r="AS136"/>
     </row>
-    <row r="137" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="36">
         <v>44875.886126342593</v>
       </c>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AS137" s="3"/>
     </row>
-    <row r="138" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="36">
         <v>44810.627858414351</v>
       </c>
@@ -15077,10 +15077,10 @@
         <v>111</v>
       </c>
       <c r="J138" s="11" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K138" s="11" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="L138" s="11" t="s">
         <v>112</v>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="AS138"/>
     </row>
-    <row r="139" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="36">
         <v>44809.643060682865</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>67</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K139" s="11" t="s">
         <v>68</v>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="AS139"/>
     </row>
-    <row r="140" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="36">
         <v>44816.657945648149</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>204</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K140" s="11" t="s">
         <v>205</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="AS140"/>
     </row>
-    <row r="141" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="36">
         <v>44873.527005231481</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>356</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>357</v>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="AS141" s="3"/>
     </row>
-    <row r="142" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39">
         <v>44895.464246655094</v>
       </c>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="AS142"/>
     </row>
-    <row r="143" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="39">
         <v>44895.587399282405</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>816</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K143" s="13" t="s">
         <v>53</v>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="AS143"/>
     </row>
-    <row r="144" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="39">
         <v>44893.427161168976</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>672</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K144" s="13" t="s">
         <v>149</v>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="AS144"/>
     </row>
-    <row r="145" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39">
         <v>44895.56598392361</v>
       </c>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="AS145"/>
     </row>
-    <row r="146" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="36">
         <v>44810.448212800926</v>
       </c>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="AS146"/>
     </row>
-    <row r="147" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39">
         <v>44895.569950393518</v>
       </c>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="AS147"/>
     </row>
-    <row r="148" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="36">
         <v>44810.470930243057</v>
       </c>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="AS148"/>
     </row>
-    <row r="149" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="36">
         <v>44810.711688807874</v>
       </c>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="AS149"/>
     </row>
-    <row r="150" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39">
         <v>44895.581071168985</v>
       </c>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="AS150"/>
     </row>
-    <row r="151" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="36">
         <v>44818.642666655098</v>
       </c>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="AS151"/>
     </row>
-    <row r="152" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="36">
         <v>44882.63297496528</v>
       </c>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="AS152" s="3"/>
     </row>
-    <row r="153" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39">
         <v>44895.609655902779</v>
       </c>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="AS153"/>
     </row>
-    <row r="154" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39">
         <v>44895.610949606482</v>
       </c>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="AS154"/>
     </row>
-    <row r="155" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39">
         <v>44895.611667557867</v>
       </c>
@@ -16270,7 +16270,7 @@
       </c>
       <c r="AS155"/>
     </row>
-    <row r="156" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="36">
         <v>44882.647948854166</v>
       </c>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="AS156" s="3"/>
     </row>
-    <row r="157" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="36">
         <v>44882.672531006945</v>
       </c>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="AS157" s="3"/>
     </row>
-    <row r="158" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39">
         <v>44895.625670312496</v>
       </c>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="AS158"/>
     </row>
-    <row r="159" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="36">
         <v>44883.443322569445</v>
       </c>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="AS159" s="3"/>
     </row>
-    <row r="160" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39">
         <v>44893.441125787038</v>
       </c>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="AS160"/>
     </row>
-    <row r="161" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39">
         <v>44894.467960023147</v>
       </c>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="AS161"/>
     </row>
-    <row r="162" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39">
         <v>44895.576332928242</v>
       </c>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="AS162"/>
     </row>
-    <row r="163" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39">
         <v>44895.619759780093</v>
       </c>
@@ -16840,7 +16840,7 @@
       </c>
       <c r="AS163"/>
     </row>
-    <row r="164" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39">
         <v>44895.647230844908</v>
       </c>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="AS164"/>
     </row>
-    <row r="165" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39">
         <v>44895.648473935187</v>
       </c>
@@ -16912,7 +16912,7 @@
       </c>
       <c r="AS165"/>
     </row>
-    <row r="166" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39">
         <v>44895.623526261574</v>
       </c>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="AS166"/>
     </row>
-    <row r="167" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39">
         <v>44895.658752627314</v>
       </c>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="AS167"/>
     </row>
-    <row r="168" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39">
         <v>44895.673521724537</v>
       </c>
@@ -17053,7 +17053,7 @@
       </c>
       <c r="AS168"/>
     </row>
-    <row r="169" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39">
         <v>44895.67480403935</v>
       </c>
@@ -17090,7 +17090,7 @@
       </c>
       <c r="AS169"/>
     </row>
-    <row r="170" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39">
         <v>44895.638438020833</v>
       </c>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="AS170"/>
     </row>
-    <row r="171" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39">
         <v>44895.679413900463</v>
       </c>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="AS171"/>
     </row>
-    <row r="172" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39">
         <v>44895.679834814815</v>
       </c>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="AS172"/>
     </row>
-    <row r="173" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39">
         <v>44895.680836655098</v>
       </c>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="AS173"/>
     </row>
-    <row r="174" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39">
         <v>44895.643770011578</v>
       </c>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="AS174"/>
     </row>
-    <row r="175" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39">
         <v>44895.678835925923</v>
       </c>
@@ -17433,7 +17433,7 @@
       </c>
       <c r="AS175"/>
     </row>
-    <row r="176" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39">
         <v>44895.68973967593</v>
       </c>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="AS176"/>
     </row>
-    <row r="177" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39">
         <v>44895.716557893524</v>
       </c>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="AS177"/>
     </row>
-    <row r="178" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39">
         <v>44894.629374016207</v>
       </c>
@@ -17697,7 +17697,7 @@
       </c>
       <c r="AS178"/>
     </row>
-    <row r="179" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39">
         <v>44895.564594722222</v>
       </c>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="AS179"/>
     </row>
-    <row r="180" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39">
         <v>44895.720944189816</v>
       </c>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="AS180"/>
     </row>
-    <row r="181" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39">
         <v>44888.586773217598</v>
       </c>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="AS181"/>
     </row>
-    <row r="182" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39">
         <v>44895.734261851852</v>
       </c>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="AS182"/>
     </row>
-    <row r="183" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="36">
         <v>44879.584915231477</v>
       </c>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="AS183"/>
     </row>
-    <row r="184" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39">
         <v>44895.738103321761</v>
       </c>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="AS184"/>
     </row>
-    <row r="185" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39">
         <v>44895.738689560181</v>
       </c>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="AS185"/>
     </row>
-    <row r="186" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D186" s="6"/>
       <c r="E186" s="32"/>
       <c r="P186" s="4"/>
@@ -18106,7 +18106,7 @@
       <c r="AR186" s="2"/>
       <c r="AS186"/>
     </row>
-    <row r="187" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D187" s="6"/>
       <c r="E187" s="32"/>
       <c r="P187" s="4"/>
@@ -18134,7 +18134,7 @@
       <c r="AR187" s="2"/>
       <c r="AS187"/>
     </row>
-    <row r="188" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D188" s="6"/>
       <c r="E188" s="32"/>
       <c r="P188" s="4"/>
@@ -18162,7 +18162,7 @@
       <c r="AR188" s="2"/>
       <c r="AS188"/>
     </row>
-    <row r="189" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D189" s="4"/>
       <c r="E189" s="32"/>
       <c r="P189" s="4"/>
@@ -18190,7 +18190,7 @@
       <c r="AR189" s="2"/>
       <c r="AS189"/>
     </row>
-    <row r="190" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D190" s="4"/>
       <c r="E190" s="32"/>
       <c r="P190" s="4"/>
@@ -18218,7 +18218,7 @@
       <c r="AR190" s="2"/>
       <c r="AS190"/>
     </row>
-    <row r="191" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D191" s="4"/>
       <c r="E191" s="32"/>
       <c r="P191" s="4"/>
@@ -18246,7 +18246,7 @@
       <c r="AR191" s="2"/>
       <c r="AS191"/>
     </row>
-    <row r="192" spans="1:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D192" s="4"/>
       <c r="E192" s="32"/>
       <c r="P192" s="4"/>
@@ -18274,7 +18274,7 @@
       <c r="AR192" s="2"/>
       <c r="AS192"/>
     </row>
-    <row r="193" spans="4:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D193" s="4"/>
       <c r="E193" s="32"/>
       <c r="P193" s="4"/>
@@ -18302,7 +18302,7 @@
       <c r="AR193" s="2"/>
       <c r="AS193"/>
     </row>
-    <row r="194" spans="4:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D194" s="4"/>
       <c r="E194" s="32"/>
       <c r="P194" s="4"/>
@@ -18330,7 +18330,7 @@
       <c r="AR194" s="2"/>
       <c r="AS194"/>
     </row>
-    <row r="195" spans="4:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D195" s="4"/>
       <c r="E195" s="32"/>
       <c r="P195" s="4"/>
@@ -18358,7 +18358,7 @@
       <c r="AR195" s="2"/>
       <c r="AS195"/>
     </row>
-    <row r="196" spans="4:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D196" s="4"/>
       <c r="E196" s="32"/>
       <c r="P196" s="4"/>
@@ -18386,7 +18386,7 @@
       <c r="AR196" s="2"/>
       <c r="AS196"/>
     </row>
-    <row r="197" spans="4:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D197" s="4"/>
       <c r="E197" s="32"/>
       <c r="P197" s="4"/>
@@ -18414,7 +18414,7 @@
       <c r="AR197" s="2"/>
       <c r="AS197"/>
     </row>
-    <row r="198" spans="4:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D198" s="4"/>
       <c r="E198" s="32"/>
       <c r="P198" s="4"/>
@@ -18442,7 +18442,7 @@
       <c r="AR198" s="2"/>
       <c r="AS198"/>
     </row>
-    <row r="199" spans="4:45" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:45" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="D199" s="4"/>
       <c r="E199" s="32"/>
       <c r="P199" s="4"/>
@@ -18472,10 +18472,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AS199" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
+    <filterColumn colId="9">
       <filters>
-        <filter val="Party Politics: Parliamentary Records"/>
-        <filter val="Party Politics: Party Manifestos, Party Politics: Parliamentary Records"/>
+        <filter val="Text Attributes"/>
       </filters>
     </filterColumn>
     <filterColumn colId="43">
